--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -31,7 +31,13 @@
     <t>Each item is available</t>
   </si>
   <si>
-    <t>spravenie getAll</t>
+    <t>SuperProjekt</t>
+  </si>
+  <si>
+    <t>Projekt</t>
+  </si>
+  <si>
+    <t>Vybuchy</t>
   </si>
   <si>
     <t>Project</t>
@@ -40,13 +46,22 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>prva faza spravenia getAll2</t>
+    <t>task</t>
   </si>
   <si>
     <t>Not defined</t>
   </si>
   <si>
-    <t>druha faza spravenia getAll</t>
+    <t xml:space="preserve">Novy Projekt </t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>task234</t>
+  </si>
+  <si>
+    <t>tasky</t>
   </si>
   <si>
     <t>Text</t>
@@ -61,10 +76,21 @@
     <t>Item</t>
   </si>
   <si>
-    <t>macicka sa z okna smeje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nieco ci to </t>
+    <t>ahoj</t>
+  </si>
+  <si>
+    <t>Lucika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novy task
+</t>
+  </si>
+  <si>
+    <t>vyzera to slubne :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new note
+</t>
   </si>
 </sst>
 </file>
@@ -119,17 +145,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.3203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.8359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.94140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -154,16 +180,50 @@
         <v>5</v>
       </c>
       <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>43432.0</v>
+      </c>
+      <c r="D2" t="n" s="2">
+        <v>43434.0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>43429.0</v>
+      </c>
+      <c r="D3" t="n" s="2">
+        <v>43432.0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="n" s="2">
-        <v>43417.0</v>
-      </c>
-      <c r="D2" t="n" s="2">
-        <v>43417.0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+      <c r="C4" t="n" s="2">
+        <v>43447.0</v>
+      </c>
+      <c r="D4" t="n" s="2">
+        <v>43464.0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -173,24 +233,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.6015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.15625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.26171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.81640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.22265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.8359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.1171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.94140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.4765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>0</v>
@@ -208,35 +268,35 @@
         <v>4</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43417.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>43432.0</v>
+      </c>
+      <c r="E2" t="n" s="2">
+        <v>43434.0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -244,17 +304,86 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="n" s="2">
-        <v>43417.0</v>
-      </c>
-      <c r="E3" t="n" s="2">
-        <v>43417.0</v>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n" s="2">
+        <v>43424.0</v>
+      </c>
+      <c r="E4" t="n" s="2">
+        <v>43435.0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n" s="2">
+        <v>43454.0</v>
+      </c>
+      <c r="E5" t="n" s="2">
+        <v>43470.0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n" s="2">
+        <v>43453.0</v>
+      </c>
+      <c r="E6" t="n" s="2">
+        <v>43455.0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -264,68 +393,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.7421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.3515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.68359375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.25390625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.68359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.42578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.48046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.22265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.48046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43417.0</v>
+        <v>43436.0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43445.60045138889</v>
+        <v>43439.306435185186</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>43439.321388888886</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n" s="2">
+        <v>43448.55571759259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -31,13 +31,10 @@
     <t>Each item is available</t>
   </si>
   <si>
-    <t>SuperProjekt</t>
-  </si>
-  <si>
-    <t>Projekt</t>
-  </si>
-  <si>
-    <t>Vybuchy</t>
+    <t>testovaci_projekt</t>
+  </si>
+  <si>
+    <t>Not defined</t>
   </si>
   <si>
     <t>Project</t>
@@ -46,22 +43,7 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>Not defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novy Projekt </t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>task234</t>
-  </si>
-  <si>
-    <t>tasky</t>
+    <t>testTask</t>
   </si>
   <si>
     <t>Text</t>
@@ -76,21 +58,7 @@
     <t>Item</t>
   </si>
   <si>
-    <t>ahoj</t>
-  </si>
-  <si>
-    <t>Lucika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">novy task
-</t>
-  </si>
-  <si>
-    <t>vyzera to slubne :)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new note
-</t>
+    <t>testovaci text</t>
   </si>
 </sst>
 </file>
@@ -145,13 +113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.3203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.1171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.94140625" customWidth="true" bestFit="true"/>
@@ -180,49 +148,15 @@
         <v>5</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43432.0</v>
-      </c>
-      <c r="D2" t="n" s="2">
-        <v>43434.0</v>
+        <v>43450.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n" s="2">
-        <v>43429.0</v>
-      </c>
-      <c r="D3" t="n" s="2">
-        <v>43432.0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n" s="2">
-        <v>43447.0</v>
-      </c>
-      <c r="D4" t="n" s="2">
-        <v>43464.0</v>
-      </c>
-      <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -233,14 +167,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.22265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.8359375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="24.1171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.94140625" customWidth="true" bestFit="true"/>
@@ -250,7 +184,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>0</v>
@@ -268,122 +202,53 @@
         <v>4</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43432.0</v>
-      </c>
-      <c r="E2" t="n" s="2">
-        <v>43434.0</v>
+        <v>43450.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n" s="2">
+        <v>43450.0</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n" s="2">
-        <v>43424.0</v>
-      </c>
-      <c r="E4" t="n" s="2">
-        <v>43435.0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n" s="2">
-        <v>43454.0</v>
-      </c>
-      <c r="E5" t="n" s="2">
-        <v>43470.0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n" s="2">
-        <v>43453.0</v>
-      </c>
-      <c r="E6" t="n" s="2">
-        <v>43455.0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -393,102 +258,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.0234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.48046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.22265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.48046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.48046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43436.0</v>
+        <v>43450.65418981481</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="n" s="2">
-        <v>43439.306435185186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="n" s="2">
-        <v>43439.321388888886</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="n" s="2">
-        <v>43448.55571759259</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43450.65418981481</v>
+        <v>43450.699791666666</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43450.699791666666</v>
+        <v>43450.891435185185</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -119,11 +119,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.20703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.1171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.94140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.64453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.6015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.42578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.26171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -151,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43450.0</v>
+        <v>43451.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -173,13 +173,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.20703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.8359375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="24.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.94140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.37890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.4765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.64453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.6015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.42578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.15625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.26171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,7 +216,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43450.0</v>
+        <v>43451.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -239,7 +239,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>43450.0</v>
+        <v>43451.0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -264,10 +264,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.0234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.48046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.48046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.68359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43450.65418981481</v>
+        <v>43451.58856481482</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43451.58856481482</v>
+        <v>43451.63483796296</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
